--- a/03-ReferenciaRelativa-Absoluta.xlsx
+++ b/03-ReferenciaRelativa-Absoluta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLVO\Dropbox\Solvo clases\Excel Básico\7. TRABAJANDO CON REFERENCIAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B448C7-9502-4007-AD14-E53B9065C44F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE557A-C284-4ACF-9573-923894A3E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipos de Referencias" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Relativa</t>
   </si>
@@ -97,6 +103,9 @@
   </si>
   <si>
     <t>REFERENCIAS RELATIVAS, ABSOLUTAS Y MIXTAS</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -354,33 +363,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,6 +434,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -403,13 +456,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O33"/>
+  <dimension ref="B1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,33 +773,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="2:15" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -763,17 +818,17 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="3"/>
@@ -785,17 +840,17 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
@@ -803,21 +858,21 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="3"/>
@@ -825,21 +880,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
@@ -851,298 +906,340 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:15" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:15" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="I13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>7500</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="21">
         <v>0.13</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="22">
         <f>B14*C14</f>
         <v>975</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.13</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="23">
         <v>7500</v>
       </c>
-      <c r="H14" s="10">
-        <f>G14*$F$14</f>
+      <c r="H14" s="24">
+        <f>$G14*$F$14</f>
         <v>975</v>
       </c>
+      <c r="J14" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="K14" s="23">
+        <v>7500</v>
+      </c>
+      <c r="L14" s="24">
+        <f>$K14*$F$14</f>
+        <v>975</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>18000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="21">
         <v>0.12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="22">
         <f t="shared" ref="D15:D20" si="0">B15*C15</f>
         <v>2160</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="23">
         <v>18000</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="24">
         <f t="shared" ref="H15:H20" si="1">G15*$F$14</f>
         <v>2340</v>
       </c>
+      <c r="K15" s="23">
+        <v>18000</v>
+      </c>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>2600</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="21">
         <v>0.15</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="22">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="23">
         <v>2600</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="24">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
+      <c r="K16" s="23">
+        <v>2600</v>
+      </c>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
         <v>4900</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="21">
         <v>0.13</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="22">
         <f t="shared" si="0"/>
         <v>637</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="G17" s="9">
+      <c r="G17" s="23">
         <v>4900</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="24">
         <f t="shared" si="1"/>
         <v>637</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+      <c r="K17" s="23">
+        <v>4900</v>
+      </c>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="7">
         <v>6750</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="21">
         <v>0.18</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="22">
         <f t="shared" si="0"/>
         <v>1215</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="G18" s="9">
+      <c r="G18" s="23">
         <v>6750</v>
       </c>
-      <c r="H18" s="10">
-        <f>G18*$F$14</f>
+      <c r="H18" s="24">
+        <f t="shared" si="1"/>
         <v>877.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+      <c r="K18" s="23">
+        <v>6750</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7">
         <v>10000</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="21">
         <v>0.33</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>3300</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="G19" s="9">
+      <c r="G19" s="23">
         <v>10000</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="24">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+      <c r="K19" s="23">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B20" s="7">
         <v>9000</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="21">
         <v>0.24</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="G20" s="9">
+      <c r="G20" s="23">
         <v>9000</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>1170</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="15" t="s">
+      <c r="K20" s="23">
+        <v>9000</v>
+      </c>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="12" t="s">
+    <row r="24" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>42731</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>42765</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>42867</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="9">
         <v>42838</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <v>43099</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>42847</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="12" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C27" s="13">
+        <f>ABS($C$25-C26)</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" ref="D27:G27" si="2">ABS($C$25-D26)</f>
+        <v>136</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C14:C15 L3 C19:C20 F14 E15 C26:G26" name="Rango1_1"/>
+    <protectedRange sqref="C14:C15 L3 C19:C20 F14 E15 C26:G26 J14" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="B1:C1"/>
@@ -1153,9 +1250,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
